--- a/content/section4/1.2-navigate/123.xlsx
+++ b/content/section4/1.2-navigate/123.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Dropbox\DM Video Productions\MOS Certification\MOS Excel core\TIY Plus Resources\123\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\surana\2025\excel\workshop\content\section4\1.2-navigate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9280426A-F89B-462C-9A7C-7D3A75B6967F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DB4879-42E0-4A3C-AD87-2CA5A8CB3A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="9870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marketing Plan Budget" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -37,31 +46,15 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>David Murphy</author>
+    <author>tc={F954C1DB-FF1A-486B-A5A4-EFA98F8F95E1}</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{5141EACC-5B3A-4F33-BC24-37B37BD3409F}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{F954C1DB-FF1A-486B-A5A4-EFA98F8F95E1}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>David Murphy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Dave's comment</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Test comment</t>
       </text>
     </comment>
   </commentList>
@@ -338,7 +331,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,14 +349,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -461,21 +446,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -581,34 +551,34 @@
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="2" borderId="3">
@@ -620,17 +590,17 @@
     <xf numFmtId="167" fontId="2" fillId="2" borderId="5">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -639,20 +609,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2224,6 +2187,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Picture 6">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C472E037-2DD0-40CE-8C98-549EA9E83F31}"/>
@@ -2235,7 +2199,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2302,6 +2266,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="raghu prasad konandur" id="{044C03AF-67BE-45A7-9EFF-48EB8EEE661B}" userId="ca0749244a5ef575" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2594,43 +2564,51 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A11" dT="2025-08-05T09:27:19.53" personId="{044C03AF-67BE-45A7-9EFF-48EB8EEE661B}" id="{F954C1DB-FF1A-486B-A5A4-EFA98F8F95E1}">
+    <text>Test comment</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="8" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="8" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -2653,7 +2631,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -2676,7 +2654,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -2699,7 +2677,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -2721,9 +2699,8 @@
       <c r="G6" s="1">
         <v>23000</v>
       </c>
-      <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -2745,9 +2722,8 @@
       <c r="G7" s="1">
         <v>10000</v>
       </c>
-      <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -2769,9 +2745,8 @@
       <c r="G8" s="1">
         <v>36000</v>
       </c>
-      <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -2794,7 +2769,7 @@
         <v>170000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -2816,9 +2791,8 @@
       <c r="G10" s="1">
         <v>90000</v>
       </c>
-      <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
@@ -2847,14 +2821,14 @@
         <v>411000</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O12" s="10"/>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D31" s="15" t="s">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D31" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2871,18 +2845,21 @@
       <formula1>500000</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A1:G1" r:id="rId1" display="Marketing Budget 2017 to 2022" xr:uid="{D5D22648-30B1-4603-9A25-A5987E60315A}"/>
+  </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;CMurphy&amp;RDublin</oddHeader>
     <oddFooter>&amp;L&amp;P of &amp;N &amp;D&amp;D &amp;T&amp;C&amp;Z&amp;F &amp;F &amp;A</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B11:G11" formulaRange="1"/>
+    <ignoredError sqref="C11:G11" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <legacyDrawingHF r:id="rId4"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
+  <legacyDrawingHF r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2890,39 +2867,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="P1" s="15" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="P1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
@@ -2969,7 +2946,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3010,7 +2987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -3051,7 +3028,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -3092,7 +3069,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -3133,12 +3110,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
@@ -3148,7 +3125,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
@@ -3158,7 +3135,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
@@ -3168,7 +3145,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>32</v>
       </c>
@@ -3197,28 +3174,28 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="7" width="11.5703125" customWidth="1"/>
-    <col min="12" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="7" width="11.5546875" customWidth="1"/>
+    <col min="12" max="13" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -3241,7 +3218,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
@@ -3264,7 +3241,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -3287,7 +3264,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -3310,7 +3287,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -3333,7 +3310,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
@@ -3356,7 +3333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
@@ -3379,7 +3356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
@@ -3402,7 +3379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -3431,11 +3408,11 @@
         <v>987</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="15" t="s">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="15"/>
+      <c r="D38" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3447,6 +3424,9 @@
       <formula>500000000</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A1:G1" location="'Maintenance Schedule'!A1" display="Profit Forecast (Million Euro) 2017 to 2022" xr:uid="{3E35196A-28BE-4A7A-910C-4859695474A6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
